--- a/NGHS Signups.xlsx
+++ b/NGHS Signups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +34,36 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Analeyah Ryan</t>
+  </si>
+  <si>
+    <t>Danielle Seunarine</t>
+  </si>
+  <si>
+    <t>Jochelle Greaves</t>
+  </si>
+  <si>
+    <t>Lilian Soogrim</t>
+  </si>
+  <si>
+    <t>Asmita Nankissoon</t>
+  </si>
+  <si>
+    <t>Salma Kaloo</t>
+  </si>
+  <si>
+    <t>Celina Mahabir</t>
+  </si>
+  <si>
+    <t>Janelle Raghoo</t>
+  </si>
+  <si>
+    <t>Kady Seecharan</t>
+  </si>
+  <si>
+    <t>Shivanna Sookdeo</t>
   </si>
 </sst>
 </file>
@@ -372,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -408,6 +438,56 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/NGHS Signups.xlsx
+++ b/NGHS Signups.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -64,13 +64,22 @@
   </si>
   <si>
     <t>Shivanna Sookdeo</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Robotics Club</t>
+  </si>
+  <si>
+    <t>App Development Club</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +87,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -95,14 +117,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,83 +595,247 @@
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A29:C29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
